--- a/Excel/pawan_dpy.xlsx
+++ b/Excel/pawan_dpy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RSSolar_API_Csharp\Rssolar_api\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel-Files\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF8AD3D-252A-4839-A6A4-160470FE9A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BC31EC-59C9-4096-91AD-63F55A37670B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{3F9CAC95-6A7B-465F-8F4E-259BE180575F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" activeTab="1" xr2:uid="{3F9CAC95-6A7B-465F-8F4E-259BE180575F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,14 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>ADDRESS  - Pachpedi , Post - Ban Baghera , Dist -
-    Rajnandgaon (CG)  , PIN - 491441</t>
-  </si>
-  <si>
-    <t>APR UDYOG PVT LTD.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>DPY  REPORT</t>
   </si>
@@ -457,15 +450,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC73F8FB-3742-48B6-957B-C5DAA5835575}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -506,7 +499,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -534,7 +527,7 @@
     </row>
     <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -562,15 +555,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803744B1-8871-4C80-9A16-BD9EAFEED446}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -596,7 +589,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -614,7 +607,7 @@
     </row>
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
